--- a/data/timeseries_cotton.xlsx
+++ b/data/timeseries_cotton.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E33493-BB73-1E45-B38C-4FCD514B9D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8093256D-F8D7-C047-92A6-F51A0E4EFCE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="20720" windowHeight="13160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -412,7 +412,7 @@
   <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3703,6 +3703,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010051579780C21AF245AA3596BAF84AC1E2" ma:contentTypeVersion="15" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="bc01b63d5194103013a0da17a7430888">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f014590c-e0a6-41b7-82db-b01279575164" xmlns:ns4="4b37de15-e846-445e-a147-d02c5f6b50dd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ca5df5e2d5d497b4836325dfcb674002" ns3:_="" ns4:_="">
     <xsd:import namespace="f014590c-e0a6-41b7-82db-b01279575164"/>
@@ -3937,36 +3952,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4ED81186-E593-40BB-945D-2F5CD85A1731}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F7EA23-A646-4C33-9BB7-B3D96D54C7F1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f014590c-e0a6-41b7-82db-b01279575164"/>
-    <ds:schemaRef ds:uri="4b37de15-e846-445e-a147-d02c5f6b50dd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3989,9 +3978,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F7EA23-A646-4C33-9BB7-B3D96D54C7F1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4ED81186-E593-40BB-945D-2F5CD85A1731}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f014590c-e0a6-41b7-82db-b01279575164"/>
+    <ds:schemaRef ds:uri="4b37de15-e846-445e-a147-d02c5f6b50dd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/timeseries_cotton.xlsx
+++ b/data/timeseries_cotton.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8093256D-F8D7-C047-92A6-F51A0E4EFCE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9DA70D-6D33-D044-9BE3-01634BBB0138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="20720" windowHeight="13160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20720" windowHeight="13160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="diameter" sheetId="4" r:id="rId1"/>
@@ -411,8 +411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D20DA17-A214-4BB3-B231-4E35AD4C332F}">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
+    <sheetView zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2058,8 +2058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDED7F7B-92AD-A544-9726-DC689ECFBE2C}">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:N1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
